--- a/biology/Botanique/Mahonia_rampant/Mahonia_rampant.xlsx
+++ b/biology/Botanique/Mahonia_rampant/Mahonia_rampant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le berbéris rampant ou mahonia rampant (Berberis repens) est une espèce de plante de la famille des Berbéridacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste prostré et drageonnant, ne dépassant guère 30 cm de haut, assez rustique (il peut résister jusqu'à −15 °C), aux feuilles persistantes et à floraison printanière (avril, mai) jaune.
 Ses fruits bleu sombre sont recouverts de pruine et mûrissent en août.
@@ -547,7 +561,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce s'hybride naturellement avec Berberis aquifolium : cette possibilité a conduit certains naturalistes à en faire une variété de cette dernière espèce.
 La synonymie en est donc nombreuse :
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Amérique du Nord : Canada, États-Unis.
 </t>
@@ -620,10 +638,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mahonia rampant est largement utilisé à des fins ornementales : plante facile de culture, de développement réduit et de floraison printanière. Il peut être utilisé en couvre-sol.
-Un éventuel usage médicinal est signalé[1].
+Un éventuel usage médicinal est signalé.
 </t>
         </is>
       </c>
